--- a/biology/Zoologie/Dolomedes_venmani/Dolomedes_venmani.xlsx
+++ b/biology/Zoologie/Dolomedes_venmani/Dolomedes_venmani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes venmani est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes venmani est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le Sud-Est du Queensland et dans le Nord-Est de la Nouvelle-Galles du Sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le Sud-Est du Queensland et dans le Nord-Est de la Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 12,5 mm et la femelle paratype 18,00 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 12,5 mm et la femelle paratype 18,00 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jack Venman[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jack Venman.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
         </is>
